--- a/docs/PT3/PT3_24.07.24_output.xlsx
+++ b/docs/PT3/PT3_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,663 +505,787 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730827527.148061</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730827531.1480541</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730827527.148061.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730827531.1480541.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.96</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.94</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730827538.076251</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730827539.1288939</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730827538.076251.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730827539.1288939.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.34</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730827547.4719353</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730827552.3606372</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730827547.4719353.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730827552.3606372.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6961.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6969.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730827555.5716143</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730827556.1056726</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730827555.5716143.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730827556.1056726.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6962.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730827558.0719914</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730827558.0719914.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730827558.0719914.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6958.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>6958.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>6972</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730827561.968717</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730827564.9038246</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730827561.968717.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730827564.9038246.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>533.85</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>536.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730827566.6492746</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730827570.0896344</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730827566.6492746.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730827570.0896344.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>536.45</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>536.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730827572.1092095</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730827574.4663532</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730827572.1092095.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730827574.4663532.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1096.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730827586.0174804</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730827586.7309265</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827586.0174804.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827586.7309265.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.06</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.44</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730827587.9322867</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730827588.2544017</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827587.9322867.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827588.2544017.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.6</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730827588.530193</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730827590.0357306</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827588.530193.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730827590.0357306.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.72</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730827592.6412575</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730827592.6412575.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730827592.6412575.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>131</v>
       </c>
-      <c r="J14" t="n">
-        <v>131</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730827597.0685215</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730827598.5367072</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730827597.0685215.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730827598.5367072.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>168.38</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>168.38</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,571 +1293,679 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730827609.0359333</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730827612.5831337</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730827609.0359333.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730827612.5831337.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>53.485</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>53.37</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.115000000000002</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730827618.0163777</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730827618.0163777.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730827618.0163777.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>53.665</v>
       </c>
-      <c r="J17" t="n">
-        <v>53.665</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730827620.3577697</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730827627.518322</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730827620.3577697.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730827627.518322.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1461</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1469.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-8.400000000000091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730827635.6193025</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730827637.7950976</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730827635.6193025.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730827637.7950976.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>63.92</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>64.02</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730827643.990732</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730827646.3944914</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SELG1730827643.990732.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SELG1730827646.3944914.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>59.46</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>59.27</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730827657.2092047</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730827658.5006816</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827657.2092047.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827658.5006816.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>146.12</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>145.96</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730827661.6506429</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730827663.2795448</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827661.6506429.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827663.2795448.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>146.12</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>145.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730827663.2941847</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730827666.0053725</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827663.2941847.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730827666.0053725.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>145.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>145.38</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730827666.0619807</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730827666.0619807.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730827666.0619807.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>145.36</v>
       </c>
-      <c r="J24" t="n">
-        <v>145.36</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.7399999999999807</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730827668.1912186</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730827672.6670039</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827668.1912186.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827672.6670039.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>90.62</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>88.73999999999999</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.88000000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-2.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730827673.6823995</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730827675.2247822</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827673.6823995.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827675.2247822.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>89.38</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730827675.2823706</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730827675.415936</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827675.2823706.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730827675.415936.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>89.44</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>89.44</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1726,670 +1973,796 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730827678.4203434</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730827679.132058</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827678.4203434.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827679.132058.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>361.83</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>360.07</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.759999999999991</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730827679.4728289</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730827682.2423387</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827679.4728289.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827682.2423387.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>361.68</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>363.23</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.550000000000011</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730827685.2483773</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730827685.3469267</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827685.2483773.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827685.3469267.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>363.69</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>362.39</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730827689.0683312</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730827689.4421883</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827689.0683312.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730827689.4421883.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>371.52</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>371.1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.4199999999999591</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730827690.0200877</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730827690.7006235</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827690.0200877.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827690.7006235.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>0.09908</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.09912000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-4.000000000001225e-05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730827693.6001117</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730827694.8292744</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827693.6001117.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827694.8292744.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>0.10028</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.0001199999999999951</v>
+      <c r="M33" t="n">
+        <v>0.000120000000000009</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730827694.8868306</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730827695.1153672</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827694.8868306.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827695.1153672.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>0.1004</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.10052</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.000120000000000009</v>
+      <c r="M34" t="n">
+        <v>0.0001199999999999951</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730827697.5838902</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730827700.7185516</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827697.5838902.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/FEES1730827700.7185516.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.1005</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730827701.7741144</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730827701.8307824</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1730827701.7741144.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1730827701.8307824.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>3117.15</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730827701.928947</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730827703.337775</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1730827701.928947.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1730827703.337775.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>3114.75</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>3121</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-6.25</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730827713.0061471</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730827713.0061471.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730827713.0061471.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>3134</v>
       </c>
-      <c r="J38" t="n">
-        <v>3134</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-1.050000000000182</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730827722.3320372</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730827722.4325666</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730827722.3320372.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730827722.4325666.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>37.995</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>38</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730827722.5098217</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730827723.3104718</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730827722.5098217.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730827723.3104718.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>37.995</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>37.92</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730827724.004955</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730827724.004955.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730827724.004955.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>37.99</v>
       </c>
-      <c r="J41" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.004999999999995453</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,6 +2800,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2440,6 +2828,15 @@
       <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.272500000000008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2448,11 +2845,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8599999999999852</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2466,6 +2872,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.000109999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2474,11 +2889,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8799999999999955</v>
+        <v>1.319999999999993</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2492,6 +2916,15 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.6199999999999998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2500,11 +2933,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10</v>
+        <v>-23.5</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-7.833333333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2513,11 +2955,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.02166666666666591</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2526,11 +2977,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.75</v>
+        <v>-8.800000000000182</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-2.933333333333394</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2539,11 +2999,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.115000000000002</v>
+        <v>-0.01500000000000057</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.007500000000000284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.01999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2557,6 +3026,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2570,6 +3048,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2583,6 +3070,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2596,6 +3092,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2609,6 +3114,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.2299999999999898</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2622,6 +3136,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2635,6 +3158,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2648,6 +3180,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-8.400000000000091</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2661,6 +3202,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
